--- a/results/mp/tinybert/corona/confidence/84/stop-words-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,76 +55,82 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>safe</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>increase</t>
   </si>
   <si>
     <t>please</t>
@@ -485,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,7 +502,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -554,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -572,19 +578,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -596,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -604,13 +610,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7077922077922078</v>
+        <v>0.5958904109589042</v>
       </c>
       <c r="C4">
-        <v>109</v>
+        <v>174</v>
       </c>
       <c r="D4">
-        <v>109</v>
+        <v>174</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -622,13 +628,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
         <v>31</v>
@@ -646,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -654,13 +660,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3090128755364807</v>
+        <v>0.1763565891472868</v>
       </c>
       <c r="C5">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="D5">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -672,19 +678,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>161</v>
+        <v>425</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -696,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -704,13 +710,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2441860465116279</v>
+        <v>0.1693121693121693</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -722,19 +728,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L6">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M6">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -746,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -757,10 +763,10 @@
         <v>0.875</v>
       </c>
       <c r="L7">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -772,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -780,13 +786,13 @@
         <v>18</v>
       </c>
       <c r="K8">
-        <v>0.875</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L8">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="M8">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -798,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -806,13 +812,13 @@
         <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8627450980392157</v>
+        <v>0.78125</v>
       </c>
       <c r="L9">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="M9">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -824,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -832,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="K10">
-        <v>0.8431372549019608</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -850,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -858,13 +864,13 @@
         <v>21</v>
       </c>
       <c r="K11">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="L11">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="M11">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -884,13 +890,13 @@
         <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="L12">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="M12">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -902,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -910,13 +916,13 @@
         <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7692307692307693</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -928,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -936,13 +942,13 @@
         <v>24</v>
       </c>
       <c r="K14">
-        <v>0.7413793103448276</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L14">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="M14">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -954,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -962,13 +968,13 @@
         <v>25</v>
       </c>
       <c r="K15">
-        <v>0.7307692307692307</v>
+        <v>0.69375</v>
       </c>
       <c r="L15">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="M15">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -980,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -988,13 +994,13 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <v>0.7241379310344828</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L16">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="M16">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1006,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1014,13 +1020,13 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.68</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1032,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1040,13 +1046,13 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6712328767123288</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L18">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="M18">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1066,13 +1072,13 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="L19">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1084,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1092,25 +1098,25 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.6060606060606061</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L20">
+        <v>28</v>
+      </c>
+      <c r="M20">
+        <v>28</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>20</v>
-      </c>
-      <c r="M20">
-        <v>20</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>13</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1118,13 +1124,13 @@
         <v>31</v>
       </c>
       <c r="K21">
-        <v>0.6</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L21">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M21">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1136,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1144,13 +1150,13 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5666666666666667</v>
+        <v>0.5143603133159269</v>
       </c>
       <c r="L22">
-        <v>17</v>
+        <v>197</v>
       </c>
       <c r="M22">
-        <v>17</v>
+        <v>197</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1162,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1170,13 +1176,13 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5305164319248826</v>
+        <v>0.4441176470588235</v>
       </c>
       <c r="L23">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="M23">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1188,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>100</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1196,13 +1202,13 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5138888888888888</v>
+        <v>0.4271186440677966</v>
       </c>
       <c r="L24">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="M24">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1214,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>70</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1222,13 +1228,13 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.4496124031007752</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="L25">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="M25">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1240,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>71</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1248,13 +1254,13 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.4</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L26">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="M26">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1266,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1274,13 +1280,13 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.3695652173913043</v>
+        <v>0.3424657534246575</v>
       </c>
       <c r="L27">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="M27">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1292,7 +1298,59 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>58</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L28">
+        <v>26</v>
+      </c>
+      <c r="M28">
+        <v>26</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29">
+        <v>0.3096234309623431</v>
+      </c>
+      <c r="L29">
+        <v>74</v>
+      </c>
+      <c r="M29">
+        <v>74</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/84/stop-words-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,46 +55,49 @@
     <t>negative</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>relief</t>
   </si>
   <si>
     <t>well</t>
@@ -103,34 +106,22 @@
     <t>better</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
   </si>
   <si>
     <t>please</t>
@@ -491,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -502,7 +493,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -560,13 +551,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7647058823529411</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -578,19 +569,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K3">
-        <v>0.9615384615384616</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L3">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M3">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -602,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -634,13 +625,13 @@
         <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9393939393939394</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -652,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -660,13 +651,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.1763565891472868</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D5">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -678,19 +669,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9130434782608695</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -702,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -710,13 +701,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1693121693121693</v>
+        <v>0.164021164021164</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -728,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K6">
-        <v>0.8983050847457628</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -752,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -760,13 +751,13 @@
         <v>17</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L7">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="M7">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -778,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -786,13 +777,13 @@
         <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8048780487804879</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L8">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -804,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -812,13 +803,13 @@
         <v>19</v>
       </c>
       <c r="K9">
-        <v>0.78125</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L9">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="M9">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -830,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -838,13 +829,13 @@
         <v>20</v>
       </c>
       <c r="K10">
-        <v>0.7586206896551724</v>
+        <v>0.7890625</v>
       </c>
       <c r="L10">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="M10">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -856,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -864,13 +855,13 @@
         <v>21</v>
       </c>
       <c r="K11">
-        <v>0.75</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L11">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="M11">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -882,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -890,13 +881,13 @@
         <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7416666666666667</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="L12">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="M12">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -908,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -916,13 +907,13 @@
         <v>23</v>
       </c>
       <c r="K13">
-        <v>0.704225352112676</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L13">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="M13">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -934,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -942,13 +933,13 @@
         <v>24</v>
       </c>
       <c r="K14">
-        <v>0.6981132075471698</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L14">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="M14">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -960,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -968,13 +959,13 @@
         <v>25</v>
       </c>
       <c r="K15">
-        <v>0.69375</v>
+        <v>0.64375</v>
       </c>
       <c r="L15">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="M15">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -986,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -994,13 +985,13 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <v>0.6862745098039216</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="L16">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="M16">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1012,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1020,13 +1011,13 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6276595744680851</v>
+        <v>0.64</v>
       </c>
       <c r="L17">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="M17">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1038,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1046,13 +1037,13 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6190476190476191</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L18">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="M18">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1064,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1072,13 +1063,13 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M19">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1090,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1098,13 +1089,13 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.5833333333333334</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L20">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M20">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1116,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1124,13 +1115,13 @@
         <v>31</v>
       </c>
       <c r="K21">
-        <v>0.5531914893617021</v>
+        <v>0.5326370757180157</v>
       </c>
       <c r="L21">
-        <v>26</v>
+        <v>204</v>
       </c>
       <c r="M21">
-        <v>26</v>
+        <v>204</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1142,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>21</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1150,13 +1141,13 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5143603133159269</v>
+        <v>0.461764705882353</v>
       </c>
       <c r="L22">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="M22">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1168,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1176,13 +1167,13 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.4441176470588235</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="L23">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="M23">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1194,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>189</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1202,13 +1193,13 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.4271186440677966</v>
+        <v>0.4406779661016949</v>
       </c>
       <c r="L24">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M24">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1220,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1228,13 +1219,13 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.4269662921348314</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L25">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M25">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1246,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1254,13 +1245,13 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.3846153846153846</v>
+        <v>0.3179916317991632</v>
       </c>
       <c r="L26">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="M26">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1272,85 +1263,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="10:17">
-      <c r="J27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K27">
-        <v>0.3424657534246575</v>
-      </c>
-      <c r="L27">
-        <v>25</v>
-      </c>
-      <c r="M27">
-        <v>25</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="10:17">
-      <c r="J28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K28">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="L28">
-        <v>26</v>
-      </c>
-      <c r="M28">
-        <v>26</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="10:17">
-      <c r="J29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K29">
-        <v>0.3096234309623431</v>
-      </c>
-      <c r="L29">
-        <v>74</v>
-      </c>
-      <c r="M29">
-        <v>74</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
